--- a/assets/data/Departments.xlsx
+++ b/assets/data/Departments.xlsx
@@ -58,67 +58,67 @@
     <t xml:space="preserve">assets/images/Department/DJB.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Education Department</t>
+    <t xml:space="preserve">Education</t>
   </si>
   <si>
     <t xml:space="preserve">assets/images/Department/Education.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Employment Department</t>
+    <t xml:space="preserve">Employment</t>
   </si>
   <si>
     <t xml:space="preserve">assets/images/Department/employment.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Environment Department</t>
+    <t xml:space="preserve">Environment</t>
   </si>
   <si>
     <t xml:space="preserve">assets/images/Department/environment.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Finance Department</t>
+    <t xml:space="preserve">Finance</t>
   </si>
   <si>
     <t xml:space="preserve">assets/images/Department/Finance.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Food and Civil Supplies Department</t>
+    <t xml:space="preserve">Food and Civil Supplies</t>
   </si>
   <si>
     <t xml:space="preserve">assets/images/Department/food.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Health Department</t>
+    <t xml:space="preserve">Health</t>
   </si>
   <si>
     <t xml:space="preserve">assets/images/Department/health.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">IT Department</t>
+    <t xml:space="preserve">IT</t>
   </si>
   <si>
     <t xml:space="preserve">assets/images/Department/IT.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Industries Department</t>
+    <t xml:space="preserve">Industries</t>
   </si>
   <si>
     <t xml:space="preserve">assets/images/Department/industries.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Irrigation and Flood Control Department</t>
+    <t xml:space="preserve">Irrigation and Flood Control</t>
   </si>
   <si>
     <t xml:space="preserve">assets/images/Department/IFC.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Labour Department</t>
+    <t xml:space="preserve">Labour</t>
   </si>
   <si>
     <t xml:space="preserve">assets/images/Department/labour.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Law Department</t>
+    <t xml:space="preserve">Law</t>
   </si>
   <si>
     <t xml:space="preserve">assets/images/Department/Law.jpg</t>
@@ -130,19 +130,19 @@
     <t xml:space="preserve">assets/images/Department/MCD.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Power Department</t>
+    <t xml:space="preserve">Power</t>
   </si>
   <si>
     <t xml:space="preserve">assets/images/Department/Power.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Public Works Department</t>
+    <t xml:space="preserve">Public Works</t>
   </si>
   <si>
     <t xml:space="preserve">assets/images/Department/pwd.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Revenue Department</t>
+    <t xml:space="preserve">Revenue</t>
   </si>
   <si>
     <t xml:space="preserve">assets/images/Department/revenue.jpg</t>
@@ -154,25 +154,25 @@
     <t xml:space="preserve">assets/images/Department/rural.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Services Department</t>
+    <t xml:space="preserve">Services</t>
   </si>
   <si>
     <t xml:space="preserve">assets/images/Department/services.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Social Welfare Department</t>
+    <t xml:space="preserve">Social Welfare</t>
   </si>
   <si>
     <t xml:space="preserve">assets/images/Department/social.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Transport Department</t>
+    <t xml:space="preserve">Transport</t>
   </si>
   <si>
     <t xml:space="preserve">assets/images/Department/Transport.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Urban Development Department</t>
+    <t xml:space="preserve">Urban Development</t>
   </si>
   <si>
     <t xml:space="preserve">assets/images/Department/urban.jpg</t>
@@ -295,7 +295,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
